--- a/Project/Test case.xlsx
+++ b/Project/Test case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a6a7a2b3347539/Desktop/HLR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a6a7a2b3347539/Documents/GitHub/Jasleen-Manual-Testing/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="8_{D4E508E7-68C4-4EBC-9799-37B1ACCEE159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC26CD35-698F-464B-801A-50A477BB0715}"/>
@@ -1383,7 +1383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1416,6 +1416,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1467,20 +1471,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1508,6 +1500,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1833,11 +1829,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -2081,11 +2077,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
@@ -2103,11 +2099,11 @@
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -2396,11 +2392,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
@@ -2674,11 +2670,11 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
@@ -2791,35 +2787,35 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="38">
+      <c r="A95" s="1">
         <v>402</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C95" s="34" t="s">
+      <c r="C95" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="38">
+      <c r="A96" s="1">
         <v>403</v>
       </c>
-      <c r="B96" s="38" t="s">
+      <c r="B96" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="38">
+      <c r="A97" s="1">
         <v>404</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="2" t="s">
         <v>331</v>
       </c>
     </row>
@@ -2978,11 +2974,11 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
@@ -3218,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFD2213-6A26-468D-90AE-FA45F6FE75B6}">
   <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4366,17 +4362,17 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
     </row>
     <row r="42" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
@@ -4933,17 +4929,17 @@
       <c r="A61" s="15"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
     </row>
     <row r="63" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
@@ -6193,17 +6189,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="30" t="s">
+      <c r="A107" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
     </row>
     <row r="108" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
@@ -7021,28 +7017,28 @@
       <c r="A136" s="1">
         <v>129</v>
       </c>
-      <c r="B136" s="34">
+      <c r="B136" s="2">
         <v>300</v>
       </c>
-      <c r="C136" s="34" t="s">
+      <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D136" s="34" t="s">
+      <c r="D136" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E136" s="34" t="s">
+      <c r="E136" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F136" s="34" t="s">
+      <c r="F136" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G136" s="34" t="s">
+      <c r="G136" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H136" s="34" t="s">
+      <c r="H136" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I136" s="34" t="s">
+      <c r="I136" s="2" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7137,28 +7133,28 @@
       <c r="A140" s="1">
         <v>133</v>
       </c>
-      <c r="B140" s="34">
+      <c r="B140" s="2">
         <v>401</v>
       </c>
-      <c r="C140" s="34" t="s">
+      <c r="C140" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D140" s="34" t="s">
+      <c r="D140" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E140" s="34" t="s">
+      <c r="E140" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F140" s="34" t="s">
+      <c r="F140" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G140" s="34" t="s">
+      <c r="G140" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H140" s="34" t="s">
+      <c r="H140" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="I140" s="34" t="s">
+      <c r="I140" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7311,28 +7307,28 @@
       <c r="A146" s="1">
         <v>139</v>
       </c>
-      <c r="B146" s="34">
+      <c r="B146" s="2">
         <v>410</v>
       </c>
-      <c r="C146" s="34" t="s">
+      <c r="C146" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D146" s="34" t="s">
+      <c r="D146" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E146" s="34" t="s">
+      <c r="E146" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F146" s="34" t="s">
+      <c r="F146" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G146" s="34" t="s">
+      <c r="G146" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H146" s="34" t="s">
+      <c r="H146" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I146" s="34" t="s">
+      <c r="I146" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7424,23 +7420,23 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="33"/>
+      <c r="A150" s="16"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="B151" s="36"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="36"/>
-      <c r="E151" s="36"/>
-      <c r="F151" s="36"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="36"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="32"/>
     </row>
     <row r="152" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A152" s="37">
+      <c r="A152" s="1">
         <v>143</v>
       </c>
       <c r="B152" s="2">
@@ -7498,7 +7494,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A154" s="37">
+      <c r="A154" s="1">
         <v>145</v>
       </c>
       <c r="B154" s="4">
@@ -7556,7 +7552,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A156" s="37">
+      <c r="A156" s="1">
         <v>147</v>
       </c>
       <c r="B156" s="4">
@@ -7614,7 +7610,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="37">
+      <c r="A158" s="1">
         <v>149</v>
       </c>
       <c r="B158" s="4">
@@ -7672,7 +7668,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="37">
+      <c r="A160" s="1">
         <v>151</v>
       </c>
       <c r="B160" s="4">
@@ -7730,7 +7726,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="37">
+      <c r="A162" s="1">
         <v>153</v>
       </c>
       <c r="B162" s="4">
@@ -7788,7 +7784,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="37">
+      <c r="A164" s="1">
         <v>155</v>
       </c>
       <c r="B164" s="4">
@@ -7846,7 +7842,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="37">
+      <c r="A166" s="1">
         <v>157</v>
       </c>
       <c r="B166" s="4">
@@ -7904,7 +7900,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="37">
+      <c r="A168" s="1">
         <v>159</v>
       </c>
       <c r="B168" s="4">
@@ -7962,7 +7958,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A170" s="37">
+      <c r="A170" s="1">
         <v>161</v>
       </c>
       <c r="B170" s="4">
@@ -8020,7 +8016,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A172" s="37">
+      <c r="A172" s="1">
         <v>163</v>
       </c>
       <c r="B172" s="2">
@@ -8078,7 +8074,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="37">
+      <c r="A174" s="1">
         <v>165</v>
       </c>
       <c r="B174" s="4">
@@ -8136,7 +8132,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A176" s="37">
+      <c r="A176" s="1">
         <v>167</v>
       </c>
       <c r="B176" s="4">
@@ -8194,7 +8190,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A178" s="37">
+      <c r="A178" s="1">
         <v>169</v>
       </c>
       <c r="B178" s="1">
@@ -8252,7 +8248,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A180" s="37">
+      <c r="A180" s="1">
         <v>171</v>
       </c>
       <c r="B180" s="4">
@@ -8310,7 +8306,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A182" s="37">
+      <c r="A182" s="1">
         <v>173</v>
       </c>
       <c r="B182" s="2">
@@ -8368,7 +8364,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A184" s="37">
+      <c r="A184" s="1">
         <v>175</v>
       </c>
       <c r="B184" s="1">
@@ -8426,7 +8422,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="37">
+      <c r="A186" s="1">
         <v>177</v>
       </c>
       <c r="B186" s="1">
@@ -8484,31 +8480,31 @@
       </c>
     </row>
     <row r="188" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A188" s="37">
+      <c r="A188" s="1">
         <v>179</v>
       </c>
-      <c r="B188" s="34">
+      <c r="B188" s="2">
         <v>410</v>
       </c>
-      <c r="C188" s="34" t="s">
+      <c r="C188" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D188" s="34" t="s">
+      <c r="D188" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E188" s="34" t="s">
+      <c r="E188" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F188" s="34" t="s">
+      <c r="F188" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G188" s="34" t="s">
+      <c r="G188" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H188" s="34" t="s">
+      <c r="H188" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I188" s="34" t="s">
+      <c r="I188" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8542,7 +8538,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A190" s="37">
+      <c r="A190" s="1">
         <v>181</v>
       </c>
       <c r="B190" s="1">
@@ -8600,17 +8596,17 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="30" t="s">
+      <c r="A193" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="B193" s="30"/>
-      <c r="C193" s="30"/>
-      <c r="D193" s="30"/>
-      <c r="E193" s="30"/>
-      <c r="F193" s="30"/>
-      <c r="G193" s="30"/>
-      <c r="H193" s="30"/>
-      <c r="I193" s="30"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="32"/>
+      <c r="H193" s="32"/>
+      <c r="I193" s="32"/>
     </row>
     <row r="194" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
@@ -9457,28 +9453,28 @@
       <c r="A223" s="1">
         <v>212</v>
       </c>
-      <c r="B223" s="34">
+      <c r="B223" s="2">
         <v>401</v>
       </c>
-      <c r="C223" s="34" t="s">
+      <c r="C223" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D223" s="34" t="s">
+      <c r="D223" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E223" s="34" t="s">
+      <c r="E223" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F223" s="34" t="s">
+      <c r="F223" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="G223" s="34" t="s">
+      <c r="G223" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H223" s="34" t="s">
+      <c r="H223" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="I223" s="34" t="s">
+      <c r="I223" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -9495,19 +9491,19 @@
       <c r="D224" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E224" s="34" t="s">
+      <c r="E224" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F224" s="34" t="s">
+      <c r="F224" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="G224" s="39" t="s">
+      <c r="G224" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="H224" s="39" t="s">
+      <c r="H224" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I224" s="39" t="s">
+      <c r="I224" s="17" t="s">
         <v>160</v>
       </c>
     </row>
@@ -9598,7 +9594,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>217</v>
       </c>
